--- a/docs/Sprint 3/FSIAP/USFA05-USFA06-USFA07.xlsx
+++ b/docs/Sprint 3/FSIAP/USFA05-USFA06-USFA07.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\IdeaProjects\sem3pi2023_24_g104\docs\Sprint 3\FSIAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Documents/2Year/LAPR3/sem3pi2023_24_g104/docs/Sprint 3/FSIAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8280BEAD-8F04-4FCD-828C-84A3007A0CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C390741-58E1-3D49-B4B9-AC9F4B4E8401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E750E663-CB35-4492-B7AF-DB35FFE1F8A5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{E750E663-CB35-4492-B7AF-DB35FFE1F8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="USFA05" sheetId="1" r:id="rId1"/>
     <sheet name="USFA06" sheetId="2" r:id="rId2"/>
     <sheet name="USFA07" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,57 +38,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="106">
   <si>
     <t>USFA05</t>
   </si>
   <si>
+    <t>Glossário</t>
+  </si>
+  <si>
     <t>x = espessura (cm)</t>
   </si>
   <si>
-    <t>R</t>
+    <t>R = resistência térmica de contacto [ºC/(W*m^2]</t>
   </si>
   <si>
     <t>k = condutividade térmica [W/(m*ºC)]</t>
   </si>
   <si>
-    <t>USFA06</t>
-  </si>
-  <si>
-    <t>Zona B</t>
-  </si>
-  <si>
-    <t>Zona C</t>
-  </si>
-  <si>
-    <t>Zona D</t>
-  </si>
-  <si>
-    <t>Q = energia transferida sob a forma de calor</t>
-  </si>
-  <si>
-    <t>ΔT = diferença de temperatura entre o interior e o exterior</t>
-  </si>
-  <si>
-    <t>R = condutividade termica</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>ΔT</t>
-  </si>
-  <si>
-    <t>Glossário</t>
-  </si>
-  <si>
-    <t>Q = ΔT/ R</t>
-  </si>
-  <si>
-    <t>R = resistência térmica de contacto [ºC/(W*m^2]</t>
+    <t>R = x/(k*A)</t>
   </si>
   <si>
     <t>Req = R1 + R2 + … + Rn (em série)</t>
@@ -97,73 +64,130 @@
     <t>1/Req = 1/R1 + 1/R2 + … + 1/Rn (em paralelo)</t>
   </si>
   <si>
+    <t>Área em m^2</t>
+  </si>
+  <si>
+    <t>Divisão B</t>
+  </si>
+  <si>
+    <t>Divisão C</t>
+  </si>
+  <si>
+    <t>Parede Interior</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Espessura (x)</t>
+  </si>
+  <si>
+    <t>Condutividade (k)</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Resistência (R)</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Exterior</t>
+  </si>
+  <si>
+    <t>Isolante</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Parede Exterior</t>
+  </si>
+  <si>
+    <t>Interior Tijolo</t>
+  </si>
+  <si>
     <t>Interior Reboco</t>
   </si>
   <si>
+    <t>Parede Interior com Porta</t>
+  </si>
+  <si>
     <t>Porta</t>
   </si>
   <si>
-    <t>Isolante</t>
-  </si>
-  <si>
-    <t>Interior</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Exterior</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Divisão B</t>
-  </si>
-  <si>
-    <t>Espessura (x)</t>
-  </si>
-  <si>
-    <t>Condutividade (k)</t>
-  </si>
-  <si>
-    <t>Parede Interior</t>
+    <t>Resistência total</t>
+  </si>
+  <si>
+    <t>Divisão D</t>
+  </si>
+  <si>
+    <t>Armazém (Divisão E)</t>
+  </si>
+  <si>
+    <t>Parede Interior com Parede Exterior</t>
+  </si>
+  <si>
+    <t>Granito</t>
+  </si>
+  <si>
+    <t>Parede exterior</t>
+  </si>
+  <si>
+    <t>Parede Interior do Armazém com Parede Interior da Divisão</t>
+  </si>
+  <si>
+    <t>Parede Interior com Parede exterior e porta</t>
+  </si>
+  <si>
+    <t>Parede Interior do Armazém</t>
   </si>
   <si>
     <t>Resistência (k)</t>
   </si>
   <si>
-    <t>Resistência (R)</t>
-  </si>
-  <si>
-    <t>Parede Exterior</t>
-  </si>
-  <si>
-    <t>Interior Tijolo</t>
-  </si>
-  <si>
-    <t>Divisão C</t>
-  </si>
-  <si>
-    <t>Divisão D</t>
-  </si>
-  <si>
-    <t>Granito</t>
-  </si>
-  <si>
-    <t>Parede Interior do Armazém</t>
-  </si>
-  <si>
-    <t>Armazém (Divisão E)</t>
+    <t>Parede Interior da Divisão</t>
+  </si>
+  <si>
+    <t>Parede Interior do Armazem com Parede interior da divisão D e Receção</t>
+  </si>
+  <si>
+    <t>Parede Interior do Armazem</t>
+  </si>
+  <si>
+    <t>Parede Interior da divisão D e Receção</t>
+  </si>
+  <si>
+    <t>Receção (Divisão A)</t>
+  </si>
+  <si>
+    <t>Parede Interior com Parede Exterior e Janela tripla</t>
+  </si>
+  <si>
+    <t>Parede interior</t>
+  </si>
+  <si>
+    <t>Parede Interior do Armazém com Parede Interior da Receção</t>
+  </si>
+  <si>
+    <t>Parede Interior da Receção</t>
   </si>
   <si>
     <t>Janela Tripla [1]</t>
   </si>
   <si>
-    <t>Receção (Divisão A)</t>
+    <t>Parede Exterior com Porta e Portão</t>
   </si>
   <si>
     <t>Telhado</t>
+  </si>
+  <si>
+    <t>Portão</t>
+  </si>
+  <si>
+    <t>Parede Exterior com Janela Tripla</t>
   </si>
   <si>
     <t>Referências</t>
@@ -192,64 +216,166 @@
     </r>
   </si>
   <si>
-    <t>R = x/(k*A)</t>
-  </si>
-  <si>
-    <t>Área</t>
-  </si>
-  <si>
-    <t>Parede Interior com Porta</t>
-  </si>
-  <si>
-    <t>Resistência total</t>
-  </si>
-  <si>
-    <t>Parede Interior do Armazém com Parede Interior da Divisão</t>
-  </si>
-  <si>
-    <t>Parede Interior da Divisão</t>
-  </si>
-  <si>
-    <t>Parede Interior do Armazém com Parede Interior da Receção</t>
-  </si>
-  <si>
-    <t>Parede Interior da Receção</t>
-  </si>
-  <si>
-    <t>Parede Exterior com Porta e Portão</t>
-  </si>
-  <si>
-    <t>Portão</t>
-  </si>
-  <si>
-    <t>Parede Exterior com Janela Tripla</t>
-  </si>
-  <si>
-    <t>Parede Interior com Parede Exterior</t>
-  </si>
-  <si>
-    <t>Parede exterior</t>
-  </si>
-  <si>
-    <t>Parede Interior com Parede exterior e porta</t>
-  </si>
-  <si>
-    <t>Parede Interior do Armazem</t>
-  </si>
-  <si>
-    <t>Parede Interior do Armazem com Parede interior da divisão D e Receção</t>
-  </si>
-  <si>
-    <t>Parede Interior da divisão D e Receção</t>
-  </si>
-  <si>
-    <t>Parede interior</t>
-  </si>
-  <si>
-    <t>Parede Interior com Parede Exterior e Janela tripla</t>
-  </si>
-  <si>
-    <t>Área em m^2</t>
+    <t>USFA06</t>
+  </si>
+  <si>
+    <t>Q = energia transferida sob a forma de calor</t>
+  </si>
+  <si>
+    <t>ΔT = diferença de temperatura entre o interior e o exterior ou vice-verse (é sempre o valor de maior temperatura menos o de menor devido ao sentido do fluxo de calor)</t>
+  </si>
+  <si>
+    <t>R = resistência termica</t>
+  </si>
+  <si>
+    <t>Q = ΔT/ R</t>
+  </si>
+  <si>
+    <t>C.A = Calculos auxiliares</t>
+  </si>
+  <si>
+    <t>!!Há valores de R que foram calculados anteriormente(User story 5) e foram reaproveitados</t>
+  </si>
+  <si>
+    <t>Zona B</t>
+  </si>
+  <si>
+    <t>C.A--zona B</t>
+  </si>
+  <si>
+    <t>A zona C tem que ter temperatura de funcionamento = -5°C</t>
+  </si>
+  <si>
+    <t>r -&gt;Parede 1 = Parede 3</t>
+  </si>
+  <si>
+    <t>r-&gt;Telhado(zona B)</t>
+  </si>
+  <si>
+    <t>Divisão</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ΔT</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Parede 1(adjacente à zona C)</t>
+  </si>
+  <si>
+    <t>Parede 2(exterior)</t>
+  </si>
+  <si>
+    <t>Parede 3(adjacente zona A sem porta)</t>
+  </si>
+  <si>
+    <t>Parede 4(Com porta)</t>
+  </si>
+  <si>
+    <t>Telhado(zona B)</t>
+  </si>
+  <si>
+    <t>Energia total a fornecer</t>
+  </si>
+  <si>
+    <t>Zona C</t>
+  </si>
+  <si>
+    <t>C.A-- zona C</t>
+  </si>
+  <si>
+    <t>r-&gt;Telhado(zona C)</t>
+  </si>
+  <si>
+    <t>A zona C tem que ter temperatura de funcionamento = 0°C</t>
+  </si>
+  <si>
+    <t>Parede 1(adjacente a B)</t>
+  </si>
+  <si>
+    <t>Parede 2(adjacente a D)</t>
+  </si>
+  <si>
+    <t>Parede 3(exterior)</t>
+  </si>
+  <si>
+    <t>Zona D</t>
+  </si>
+  <si>
+    <t>C.A--zona D</t>
+  </si>
+  <si>
+    <t>A zona C tem que ter temperatura de funcionamento = 7°C</t>
+  </si>
+  <si>
+    <t>Parede 1(adjacente a C)</t>
+  </si>
+  <si>
+    <t>Parede 2(adjacente a garagem)</t>
+  </si>
+  <si>
+    <t>Parede 4(com porta)</t>
+  </si>
+  <si>
+    <t>Zona A</t>
+  </si>
+  <si>
+    <t>Zona E</t>
+  </si>
+  <si>
+    <t>Energia a fornecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A zona C tem que ter temperatura de funcionamento = 5 °C abaixo da temperatura ambiente  </t>
+  </si>
+  <si>
+    <t>Telhado(zona A)</t>
+  </si>
+  <si>
+    <t>Parede 1(parede exterior sem porta e janelas)</t>
+  </si>
+  <si>
+    <t>Parede 2(porta e portao)</t>
+  </si>
+  <si>
+    <t>Parede 3(janela tripla)</t>
+  </si>
+  <si>
+    <t>Parede 4(adjacente a zona E)</t>
+  </si>
+  <si>
+    <t>Parede 7(adjacente a zona B com porta)</t>
+  </si>
+  <si>
+    <t>Parede 8(adjacente a zona B sem porta)</t>
+  </si>
+  <si>
+    <t>Parede 5(adjacente zona D com porta)</t>
+  </si>
+  <si>
+    <t>Parede 6(adjacente zona C com porta)</t>
+  </si>
+  <si>
+    <t>r -&gt;Parede 8</t>
+  </si>
+  <si>
+    <t>r-&gt;Telhado(zona A)</t>
+  </si>
+  <si>
+    <t>Parede 2(parede exterior com porta)</t>
+  </si>
+  <si>
+    <t>Parede 3(parede exterior com janela tripla)</t>
+  </si>
+  <si>
+    <t>Parede 4(adjacente a zona D e A)</t>
+  </si>
+  <si>
+    <t>Potência necessária h</t>
   </si>
 </sst>
 </file>
@@ -263,7 +389,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +458,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -377,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,24 +560,58 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -437,40 +625,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A81472EC-10D8-476C-8B44-59CC1846230E}" name="Table3" displayName="Table3" ref="A8:B11" totalsRowShown="0">
-  <autoFilter ref="A8:B11" xr:uid="{A81472EC-10D8-476C-8B44-59CC1846230E}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6761AC40-E7BA-4270-8EB0-566A45FD4168}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{3DEC9123-9814-4386-B50A-578BEB1CEC8D}" name="Zona B"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{762E22DD-13DD-432C-AC37-11F86E1591D8}" name="Table1" displayName="Table1" ref="A15:D21" totalsRowShown="0">
+  <autoFilter ref="A15:D21" xr:uid="{762E22DD-13DD-432C-AC37-11F86E1591D8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F021A33E-68AD-41BD-98DB-4BAF4FD7E18A}" name="Divisão"/>
+    <tableColumn id="2" xr3:uid="{C2B41D43-B97A-4860-8DFF-BAF63AC1E2BD}" name="R"/>
+    <tableColumn id="3" xr3:uid="{E2DA158F-093F-4044-B621-0B1266CE08EE}" name="ΔT"/>
+    <tableColumn id="4" xr3:uid="{A5F18205-557C-4B09-B055-29CCBE19E5F5}" name="Q" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B7FE09F-5609-4A93-BEC8-E6F85BBC33C3}" name="Table35" displayName="Table35" ref="A14:B17" totalsRowShown="0">
-  <autoFilter ref="A14:B17" xr:uid="{2B7FE09F-5609-4A93-BEC8-E6F85BBC33C3}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DA1397FC-3752-4BD0-B90D-14A35C70EF23}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{02CCED14-97BF-4D98-8AF2-33E8B69CFC2D}" name="Zona C"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A33B3850-0B5F-429C-A2D6-5B732FFB4BD7}" name="Table13" displayName="Table13" ref="A28:D34" totalsRowShown="0">
+  <autoFilter ref="A28:D34" xr:uid="{A33B3850-0B5F-429C-A2D6-5B732FFB4BD7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8745B4F0-C366-44D0-921A-42AE809F8E61}" name="Divisão"/>
+    <tableColumn id="2" xr3:uid="{4CCFC25A-8BED-43D7-843B-00FDD19E79EE}" name="R"/>
+    <tableColumn id="3" xr3:uid="{5C04E956-BBC0-4044-B0BF-E77FCC5AFA93}" name="ΔT"/>
+    <tableColumn id="4" xr3:uid="{236DDC34-B9B5-494D-AC74-FD9ADB132A59}" name="Q" dataDxfId="4">
+      <calculatedColumnFormula>Table13[[#This Row],[ΔT]]/Table13[[#This Row],[R]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD898EDE-92C9-4E45-AAB1-3E28B40B5115}" name="Table352" displayName="Table352" ref="A20:B23" totalsRowShown="0">
-  <autoFilter ref="A20:B23" xr:uid="{FD898EDE-92C9-4E45-AAB1-3E28B40B5115}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AC09E985-425B-40E8-A266-50E4932836EA}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{497B73AD-D873-4DAF-822A-52338217489C}" name="Zona D"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{208A3535-1552-4E35-915D-57E2C91EAA3F}" name="Table14" displayName="Table14" ref="A41:D47" totalsRowShown="0">
+  <autoFilter ref="A41:D47" xr:uid="{208A3535-1552-4E35-915D-57E2C91EAA3F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DC732278-149C-48D8-8067-C8C6D97C6C0E}" name="Divisão"/>
+    <tableColumn id="2" xr3:uid="{594EA839-5C55-4258-8AF3-0532ED19AEC4}" name="R"/>
+    <tableColumn id="3" xr3:uid="{DBA793B7-59EF-4D7D-86FB-370A750779C3}" name="ΔT"/>
+    <tableColumn id="4" xr3:uid="{C458C0E2-F246-434D-85CD-D2026F40E676}" name="Q" dataDxfId="3">
+      <calculatedColumnFormula>Table14[[#This Row],[ΔT]]/Table14[[#This Row],[R]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AF83A97-FFF5-B647-84AE-8F8D37FF8BBD}" name="Table15" displayName="Table15" ref="K7:N17" totalsRowShown="0">
+  <autoFilter ref="K7:N17" xr:uid="{5AF83A97-FFF5-B647-84AE-8F8D37FF8BBD}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7AECDCA9-9B3E-F246-9AC7-AA00014A93A6}" name="Divisão"/>
+    <tableColumn id="2" xr3:uid="{4118BD41-A38B-B346-A32C-E6460E818512}" name="R"/>
+    <tableColumn id="3" xr3:uid="{82231897-EA93-8A42-B0D1-CCF6C3150219}" name="ΔT"/>
+    <tableColumn id="4" xr3:uid="{A5B7F1CD-1B2A-D441-BAE1-F94BBD30A908}" name="Q" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B636577F-1232-4942-8B38-05B344B3FD08}" name="Table156" displayName="Table156" ref="K24:N30" totalsRowShown="0">
+  <autoFilter ref="K24:N30" xr:uid="{B636577F-1232-4942-8B38-05B344B3FD08}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0AB133CD-7824-A446-A84F-E7902731559C}" name="Divisão"/>
+    <tableColumn id="2" xr3:uid="{5A9AA480-272E-0248-83AF-39BED4D3ADCC}" name="R" dataDxfId="1">
+      <calculatedColumnFormula>USFA05!H109</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E81EDFF2-C4C0-9F44-BFE6-992B086E3D8A}" name="ΔT"/>
+    <tableColumn id="4" xr3:uid="{2C87B98C-6F9F-9C4A-ADFD-FB0FEBC25CBC}" name="Q" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -768,95 +994,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664A065-1D1A-4C4F-827B-75A175FC8AF9}">
   <dimension ref="A1:R187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="32.08984375" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-    <col min="13" max="13" width="20.90625" customWidth="1"/>
-    <col min="14" max="14" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="9"/>
       <c r="E12" s="9"/>
       <c r="G12" s="13" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="C13" s="8"/>
       <c r="E13" s="12"/>
@@ -864,59 +1090,59 @@
       <c r="I13" s="8"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8"/>
       <c r="E14" s="11"/>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I14" s="8"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="8"/>
       <c r="E15" s="10"/>
       <c r="I15" s="8"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="15">
         <v>5</v>
@@ -933,7 +1159,7 @@
         <v>2.4038461538461538E-5</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H17" s="15">
         <v>5</v>
@@ -950,9 +1176,9 @@
         <v>2.4038461538461538E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B18" s="15">
         <v>5</v>
@@ -969,7 +1195,7 @@
         <v>2.4038461538461538E-5</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H18" s="15">
         <v>5</v>
@@ -986,9 +1212,9 @@
         <v>2.4038461538461538E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="18">
         <v>10</v>
@@ -1005,7 +1231,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19" s="18">
         <v>10</v>
@@ -1022,65 +1248,65 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E20" s="19">
         <f>SUM(E17:E19)</f>
         <v>7.1476648351648353E-2</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K20" s="19">
         <f>SUM(K17:K19)</f>
         <v>7.1476648351648353E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B25" s="15">
         <v>8</v>
@@ -1097,7 +1323,7 @@
         <v>7.1428571428571435E-3</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H25" s="15">
         <v>8</v>
@@ -1114,9 +1340,9 @@
         <v>5.7142857142857143E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B26" s="15">
         <v>2</v>
@@ -1133,7 +1359,7 @@
         <v>9.6153846153846148E-4</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H26" s="15">
         <v>2</v>
@@ -1150,9 +1376,9 @@
         <v>7.6923076923076923E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B27" s="15">
         <v>8</v>
@@ -1169,7 +1395,7 @@
         <v>7.1428571428571435E-3</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H27" s="15">
         <v>8</v>
@@ -1186,9 +1412,9 @@
         <v>5.7142857142857143E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" s="18">
         <v>12</v>
@@ -1205,7 +1431,7 @@
         <v>0.20270270270270271</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28" s="18">
         <v>12</v>
@@ -1222,67 +1448,67 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E29" s="20">
         <f>SUM(E25:E28)</f>
         <v>0.21794995544995546</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K29" s="20">
         <f>SUM(K25:K28)</f>
         <v>0.17435996435996437</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B36" s="15">
         <v>2</v>
@@ -1295,7 +1521,7 @@
         <v>3.8461538461538462E-4</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H36" s="15">
         <v>2</v>
@@ -1308,9 +1534,9 @@
         <v>3.8461538461538462E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B37" s="15">
         <v>2</v>
@@ -1323,7 +1549,7 @@
         <v>3.8461538461538462E-4</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H37" s="15">
         <v>2</v>
@@ -1336,9 +1562,9 @@
         <v>3.8461538461538462E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B38" s="15">
         <v>1</v>
@@ -1351,7 +1577,7 @@
         <v>0.34482758620689652</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H38" s="15">
         <v>1</v>
@@ -1367,16 +1593,16 @@
       <c r="P38" s="5"/>
       <c r="R38" s="9"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D39" s="20">
         <f>SUM(D36:D38)</f>
         <v>0.34559681697612726</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J39" s="20">
         <f>SUM(J36:J38)</f>
@@ -1390,49 +1616,49 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
     </row>
-    <row r="41" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B44" s="15">
         <v>5</v>
@@ -1449,7 +1675,7 @@
         <v>5.0607287449392717E-5</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H44" s="15">
         <v>5</v>
@@ -1466,9 +1692,9 @@
         <v>5.0607287449392717E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B45" s="15">
         <v>5</v>
@@ -1485,7 +1711,7 @@
         <v>5.0607287449392717E-5</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H45" s="15">
         <v>5</v>
@@ -1502,9 +1728,9 @@
         <v>5.0607287449392717E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" s="18">
         <v>10</v>
@@ -1521,7 +1747,7 @@
         <v>0.15037593984962405</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H46" s="18">
         <v>10</v>
@@ -1538,83 +1764,81 @@
         <v>0.15037593984962405</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E47" s="20">
         <f>SUM(E44:E46)</f>
         <v>0.15047715442452284</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K47" s="20">
         <f>SUM(K44:K46)</f>
         <v>0.15047715442452284</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B49" s="20">
         <f>1/(1/E47+1/D39)</f>
         <v>0.10483199803833147</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H49" s="20">
         <f>1/(1/K47+1/J39)</f>
         <v>0.10483199803833147</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J52" s="28"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J53" s="28"/>
-      <c r="K53" s="27"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K53" s="12"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B56" s="15">
         <v>5</v>
@@ -1631,9 +1855,9 @@
         <v>4.8076923076923077E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B57" s="15">
         <v>5</v>
@@ -1650,24 +1874,24 @@
         <v>4.8076923076923077E-5</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K57" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B58" s="18">
         <v>10</v>
@@ -1684,7 +1908,7 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H58" s="18">
         <v>20</v>
@@ -1701,60 +1925,60 @@
         <v>3.5714285714285718E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E59" s="20">
         <f>SUM(E56:E58)</f>
         <v>0.14295329670329671</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G60" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G60" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G62" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H63" s="15">
         <v>8</v>
@@ -1771,9 +1995,9 @@
         <v>5.7142857142857143E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B64" s="15">
         <v>8</v>
@@ -1790,7 +2014,7 @@
         <v>5.7142857142857143E-3</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H64" s="15">
         <v>2</v>
@@ -1807,9 +2031,9 @@
         <v>7.6923076923076923E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B65" s="15">
         <v>2</v>
@@ -1826,7 +2050,7 @@
         <v>7.6923076923076923E-4</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H65" s="15">
         <v>8</v>
@@ -1843,9 +2067,9 @@
         <v>5.7142857142857143E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B66" s="15">
         <v>8</v>
@@ -1862,7 +2086,7 @@
         <v>5.7142857142857143E-3</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H66" s="18">
         <v>12</v>
@@ -1879,9 +2103,9 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B67" s="18">
         <v>12</v>
@@ -1898,71 +2122,71 @@
         <v>0.16216216216216217</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K67" s="20">
         <f>SUM(K63:K66)</f>
         <v>0.17435996435996437</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E68" s="20">
         <f>SUM(E64:E67)</f>
         <v>0.17435996435996437</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G69" s="18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H69" s="20">
         <f>K67+K58</f>
         <v>0.17793139293139293</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="G71" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G73" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G73" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="B75" s="18">
         <v>20</v>
@@ -1979,24 +2203,24 @@
         <v>5.7142857142857143E-3</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J75" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K75" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G76" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H76" s="18">
         <v>20</v>
@@ -2013,36 +2237,36 @@
         <v>5.1020408163265311E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G78" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G78" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B80" s="15">
         <v>5</v>
@@ -2059,24 +2283,24 @@
         <v>4.8076923076923077E-5</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B81" s="15">
         <v>5</v>
@@ -2093,7 +2317,7 @@
         <v>4.8076923076923077E-5</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H81" s="15">
         <v>8</v>
@@ -2110,9 +2334,9 @@
         <v>8.1632653061224497E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B82" s="18">
         <v>10</v>
@@ -2129,7 +2353,7 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H82" s="15">
         <v>2</v>
@@ -2146,16 +2370,16 @@
         <v>1.0989010989010989E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E83" s="20">
         <f>SUM(E80:E82)</f>
         <v>0.14295329670329671</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H83" s="15">
         <v>8</v>
@@ -2172,9 +2396,9 @@
         <v>8.1632653061224497E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G84" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H84" s="18">
         <v>12</v>
@@ -2191,50 +2415,53 @@
         <v>0.23166023166023164</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B85" s="20">
         <f>E75+E83</f>
         <v>0.14866758241758243</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K85" s="20">
         <f>SUM(K81:K84)</f>
         <v>0.24908566337137764</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G87" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="26" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G90" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H90" s="15">
         <v>2</v>
@@ -2247,21 +2474,21 @@
         <v>3.8461538461538462E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H91" s="15">
         <v>2</v>
@@ -2274,9 +2501,9 @@
         <v>3.8461538461538462E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B92" s="15">
         <v>2</v>
@@ -2289,7 +2516,7 @@
         <v>3.8461538461538462E-4</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H92" s="15">
         <v>1</v>
@@ -2302,9 +2529,9 @@
         <v>0.34482758620689652</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B93" s="15">
         <v>2</v>
@@ -2317,16 +2544,16 @@
         <v>3.8461538461538462E-4</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J93" s="20">
         <f>SUM(J90:J92)</f>
         <v>0.34559681697612726</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B94" s="15">
         <v>1</v>
@@ -2339,53 +2566,53 @@
         <v>0.34482758620689652</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D95" s="20">
         <f>SUM(D92:D94)</f>
         <v>0.34559681697612726</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H95" s="20">
         <f>1/(1/(K76+K85) + 1/J93)</f>
         <v>0.14646336872995872</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A97" s="26" t="s">
-        <v>29</v>
+    <row r="97" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G99" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B100" s="15">
         <v>5</v>
@@ -2402,9 +2629,9 @@
         <v>5.0607287449392717E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B101" s="15">
         <v>5</v>
@@ -2421,24 +2648,24 @@
         <v>5.0607287449392717E-5</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J101" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K101" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B102" s="18">
         <v>10</v>
@@ -2455,7 +2682,7 @@
         <v>0.15037593984962405</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H102" s="18">
         <v>20</v>
@@ -2472,52 +2699,52 @@
         <v>4.7619047619047623E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E103" s="20">
         <f>SUM(E100:E102)</f>
         <v>0.15047715442452284</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G104" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G104" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B105" s="20">
         <f>1/(1/E103+1/D95)</f>
         <v>0.10483199803833147</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G106" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H107" s="15">
         <v>5</v>
@@ -2534,9 +2761,9 @@
         <v>4.0064102564102564E-5</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G108" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H108" s="15">
         <v>5</v>
@@ -2553,13 +2780,12 @@
         <v>4.0064102564102564E-5</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="28"/>
+        <v>21</v>
+      </c>
       <c r="G109" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H109" s="18">
         <v>10</v>
@@ -2576,36 +2802,35 @@
         <v>0.11904761904761904</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E110" s="28"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G110" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K110" s="20">
         <f>SUM(K107:K109)</f>
         <v>0.11912774725274725</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B112" s="15">
         <v>8</v>
@@ -2622,16 +2847,16 @@
         <v>1.6806722689075633E-3</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H112" s="20">
         <f>K102+K110</f>
         <v>0.123889652014652</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B113" s="15">
         <v>2</v>
@@ -2640,7 +2865,7 @@
         <v>1.3</v>
       </c>
       <c r="D113" s="18">
-        <f t="shared" ref="D113:D115" si="18">17*4</f>
+        <f t="shared" ref="D113:D114" si="18">17*4</f>
         <v>68</v>
       </c>
       <c r="E113" s="17">
@@ -2648,9 +2873,9 @@
         <v>2.262443438914027E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B114" s="15">
         <v>8</v>
@@ -2667,12 +2892,12 @@
         <v>1.6806722689075633E-3</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B115" s="18">
         <v>12</v>
@@ -2681,7 +2906,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="D115" s="18">
-        <f t="shared" si="18"/>
+        <f>17*4</f>
         <v>68</v>
       </c>
       <c r="E115" s="20">
@@ -2689,57 +2914,46 @@
         <v>4.7694753577106515E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E116" s="20">
         <f>SUM(E112:E115)</f>
         <v>5.1282342458813045E-2</v>
       </c>
-      <c r="G116" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" s="28"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-    </row>
-    <row r="118" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A118" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B118" s="29"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
+      <c r="G116" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B117" s="8"/>
+      <c r="C117" s="25"/>
+    </row>
+    <row r="118" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="8"/>
       <c r="G118" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J118" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K118" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" s="28"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G119" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H119" s="18">
         <v>20</v>
@@ -2756,37 +2970,36 @@
         <v>3.7593984962406022E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="28"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G121" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G121" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="18" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="B123" s="18">
         <v>20</v>
@@ -2803,24 +3016,24 @@
         <v>2.8571428571428574E-2</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J123" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G124" s="18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H124" s="15">
         <v>8</v>
@@ -2837,12 +3050,12 @@
         <v>6.0150375939849628E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H125" s="15">
         <v>2</v>
@@ -2859,9 +3072,9 @@
         <v>8.0971659919028347E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G126" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H126" s="15">
         <v>8</v>
@@ -2878,24 +3091,24 @@
         <v>6.0150375939849628E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H127" s="18">
         <v>12</v>
@@ -2912,9 +3125,9 @@
         <v>0.17069701280227598</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B128" s="15">
         <v>5</v>
@@ -2931,16 +3144,16 @@
         <v>2.403846153846154E-4</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K128" s="20">
         <f>SUM(K124:K127)</f>
         <v>0.18353680458943619</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B129" s="15">
         <v>5</v>
@@ -2957,9 +3170,9 @@
         <v>2.403846153846154E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B130" s="18">
         <v>10</v>
@@ -2975,43 +3188,43 @@
         <f>B130*10^-2/(C130*D130)</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G130" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G130" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E131" s="20">
         <f>SUM(E128:E130)</f>
         <v>0.71476648351648353</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G132" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B133" s="20">
         <f>E123+E131</f>
         <v>0.74333791208791211</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H133" s="18">
         <v>5.0999999999999996</v>
@@ -3025,9 +3238,9 @@
         <v>4.7939999999999997E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G134" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H134" s="18">
         <v>5.0999999999999996</v>
@@ -3041,12 +3254,12 @@
         <v>3.7739999999999996E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H135" s="18">
         <v>8.5</v>
@@ -3060,46 +3273,46 @@
         <v>9.180000000000002E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G136" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J136" s="19">
         <f>SUM(J133:J135)</f>
         <v>0.17748000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G138" s="36" t="s">
-        <v>47</v>
+    <row r="137" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G138" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="H138" s="19">
         <f>1/(1/(K119+K128) + 1/J136)</f>
         <v>9.1128011757494951E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B140" s="15">
         <v>2</v>
@@ -3112,12 +3325,12 @@
         <v>3.8461538461538462E-4</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B141" s="15">
         <v>2</v>
@@ -3130,9 +3343,9 @@
         <v>3.8461538461538462E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B142" s="15">
         <v>1</v>
@@ -3145,31 +3358,31 @@
         <v>0.34482758620689652</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J142" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D143" s="20">
         <f>SUM(D140:D142)</f>
         <v>0.34559681697612726</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H143" s="18">
         <v>10</v>
@@ -3185,9 +3398,9 @@
         <v>7.8431372549019615E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G144" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H144" s="18">
         <v>6</v>
@@ -3203,38 +3416,38 @@
         <v>1.0810810810810811E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K145" s="19">
         <f>SUM(K143:K144)</f>
         <v>1.1595124536301007E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B148" s="15">
         <v>2</v>
@@ -3249,12 +3462,12 @@
         <f>B148*10^-2/(C148*D148)</f>
         <v>9.6153846153846154E-5</v>
       </c>
-      <c r="G148" s="25"/>
-      <c r="H148" s="29"/>
-    </row>
-    <row r="149" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G148" s="5"/>
+      <c r="H148" s="8"/>
+    </row>
+    <row r="149" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B149" s="15">
         <v>2</v>
@@ -3269,14 +3482,11 @@
         <f t="shared" ref="E149:E150" si="23">B149*10^-2/(C149*D149)</f>
         <v>9.6153846153846154E-5</v>
       </c>
-      <c r="G149" s="31"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B150" s="15">
         <v>1</v>
@@ -3291,69 +3501,50 @@
         <f t="shared" si="23"/>
         <v>8.620689655172413E-2</v>
       </c>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-      <c r="J150" s="32"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E151" s="20">
         <f>SUM(E148:E150)</f>
         <v>8.6399204244031816E-2</v>
       </c>
-      <c r="G151" s="28"/>
-      <c r="H151" s="29"/>
-      <c r="I151" s="28"/>
-      <c r="J151" s="28"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G152" s="28"/>
-      <c r="H152" s="29"/>
-      <c r="I152" s="28"/>
-      <c r="J152" s="28"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H151" s="8"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H152" s="8"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G153" s="28"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="28"/>
-      <c r="J153" s="28"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G154" s="28"/>
-      <c r="H154" s="28"/>
-      <c r="I154" s="28"/>
-      <c r="J154" s="28"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="H153" s="8"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G155" s="28"/>
-      <c r="H155" s="28"/>
-      <c r="I155" s="28"/>
-      <c r="J155" s="28"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B156" s="15">
         <v>8</v>
@@ -3369,14 +3560,10 @@
         <f>B156*10^-2/(C156*D156)</f>
         <v>6.0150375939849628E-3</v>
       </c>
-      <c r="G156" s="28"/>
-      <c r="H156" s="28"/>
-      <c r="I156" s="28"/>
-      <c r="J156" s="28"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B157" s="15">
         <v>2</v>
@@ -3392,14 +3579,12 @@
         <f t="shared" ref="E157:E159" si="25">B157*10^-2/(C157*D157)</f>
         <v>8.0971659919028347E-4</v>
       </c>
-      <c r="G157" s="25"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="28"/>
-      <c r="J157" s="28"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G157" s="5"/>
+      <c r="H157" s="12"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B158" s="15">
         <v>8</v>
@@ -3415,14 +3600,11 @@
         <f t="shared" si="25"/>
         <v>6.0150375939849628E-3</v>
       </c>
-      <c r="G158" s="25"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="28"/>
-      <c r="J158" s="28"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B159" s="18">
         <v>12</v>
@@ -3439,51 +3621,51 @@
         <v>0.17069701280227598</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E160" s="20">
         <f>SUM(E156:E159)</f>
         <v>0.18353680458943619</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B162" s="19">
         <f>1/(1/D143+1/E151+1/E160)</f>
         <v>5.0210320191295968E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B169" s="18">
         <v>5.0999999999999996</v>
@@ -3497,9 +3679,9 @@
         <v>4.7939999999999997E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B170" s="18">
         <v>5.0999999999999996</v>
@@ -3513,9 +3695,9 @@
         <v>3.7739999999999996E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B171" s="18">
         <v>8.5</v>
@@ -3529,40 +3711,40 @@
         <v>9.180000000000002E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D172" s="20">
         <f>SUM(D169:D171)</f>
         <v>0.17748000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D176" s="24" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B177" s="15">
         <v>8</v>
@@ -3579,9 +3761,9 @@
         <v>1.0389610389610391E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B178" s="15">
         <v>2</v>
@@ -3598,9 +3780,9 @@
         <v>1.3986013986013986E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B179" s="15">
         <v>8</v>
@@ -3617,9 +3799,9 @@
         <v>1.0389610389610391E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B180" s="18">
         <v>12</v>
@@ -3636,32 +3818,32 @@
         <v>0.29484029484029484</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E181" s="20">
         <f>SUM(E177:E180)</f>
         <v>0.317018117018117</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="18" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B183" s="20">
         <f>1/(1/D172 + 1/E181)</f>
         <v>0.11378076775631896</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3671,134 +3853,699 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD9B670-763D-4818-A8E8-9E43873469B8}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:20" ht="34" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="H14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="L14" s="11"/>
+      <c r="P14" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="11">
+        <f>L20</f>
+        <v>0.14295329670329671</v>
+      </c>
+      <c r="C16">
+        <f>0+5</f>
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <f>Table1[[#This Row],[ΔT]]/Table1[[#This Row],[R]]</f>
+        <v>34.976458153166135</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>0.22</v>
+      </c>
+      <c r="C17">
+        <f>20-(-5)</f>
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <f>Table1[[#This Row],[ΔT]]/Table1[[#This Row],[R]]</f>
+        <v>113.63636363636364</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="15">
+        <v>5</v>
+      </c>
+      <c r="J17" s="16">
+        <v>52</v>
+      </c>
+      <c r="K17" s="18">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="L17" s="22">
+        <f>I17*10^-2/(J17*K17)</f>
+        <v>4.8076923076923077E-5</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>10</v>
+      </c>
+      <c r="R17" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="S17" s="18">
+        <v>20</v>
+      </c>
+      <c r="T17" s="17">
+        <f>Q17*10^-2/(R17*S17)</f>
+        <v>5.8823529411764705E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="11">
+        <f>L20</f>
+        <v>0.14295329670329671</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <f>Table1[[#This Row],[ΔT]]/Table1[[#This Row],[R]]</f>
+        <v>139.90583261266454</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="15">
+        <v>5</v>
+      </c>
+      <c r="J18" s="18">
+        <v>52</v>
+      </c>
+      <c r="K18" s="18">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="L18" s="22">
+        <f>I18*10^-2/(J18*K18)</f>
+        <v>4.8076923076923077E-5</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>6</v>
+      </c>
+      <c r="R18" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="S18" s="18">
+        <v>20</v>
+      </c>
+      <c r="T18" s="19">
+        <f>Q18*10^-2/(R18*S18)</f>
+        <v>8.1081081081081086E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19">
+        <v>0.12</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <f>Table1[[#This Row],[ΔT]]/Table1[[#This Row],[R]]</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="18">
+        <v>10</v>
+      </c>
+      <c r="J19" s="18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K19" s="18">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="L19" s="19">
+        <f>I19*10^-2/(J19*K19)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="19">
+        <f>SUM(T17:T18)</f>
+        <v>8.6963434022257563E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="11">
+        <f>T19</f>
+        <v>8.6963434022257563E-2</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <f>Table1[[#This Row],[ΔT]]/Table1[[#This Row],[R]]</f>
+        <v>287.47714808043872</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="19">
+        <f>SUM(L17:L19)</f>
+        <v>0.14295329670329671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21">
+        <f>D16+D17+D18+D19+D20</f>
+        <v>742.6624691492998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="L26" s="11"/>
+      <c r="P26" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J27" s="8"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="11">
+        <f>0.143</f>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <f>Table13[[#This Row],[ΔT]]/Table13[[#This Row],[R]]</f>
+        <v>34.965034965034967</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="15">
+        <v>5</v>
+      </c>
+      <c r="J29" s="16">
+        <v>52</v>
+      </c>
+      <c r="K29" s="18">
+        <f>5*4</f>
+        <v>20</v>
+      </c>
+      <c r="L29" s="22">
+        <f>I29*10^-2/(J29*K29)</f>
+        <v>4.8076923076923077E-5</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>10</v>
+      </c>
+      <c r="R29" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="S29" s="18">
+        <v>25</v>
+      </c>
+      <c r="T29" s="17">
+        <f>Q29*10^-2/(R29*S29)</f>
+        <v>4.7058823529411769E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="11">
+        <f>B29</f>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <f>Table13[[#This Row],[ΔT]]/Table13[[#This Row],[R]]</f>
+        <v>48.951048951048953</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="15">
+        <v>5</v>
+      </c>
+      <c r="J30" s="18">
+        <v>52</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" ref="K30:K31" si="0">5*4</f>
+        <v>20</v>
+      </c>
+      <c r="L30" s="22">
+        <f>I30*10^-2/(J30*K30)</f>
+        <v>4.8076923076923077E-5</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>6</v>
+      </c>
+      <c r="R30" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="S30" s="18">
+        <v>25</v>
+      </c>
+      <c r="T30" s="19">
+        <f>Q30*10^-2/(R30*S30)</f>
+        <v>6.4864864864864868E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <v>0.17</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <f>Table13[[#This Row],[ΔT]]/Table13[[#This Row],[R]]</f>
+        <v>117.64705882352941</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="18">
+        <v>10</v>
+      </c>
+      <c r="J31" s="18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K31" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L31" s="19">
+        <f>I31*10^-2/(J31*K31)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="19">
+        <f>SUM(T29:T30)</f>
+        <v>6.9570747217806039E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <f>Table13[[#This Row],[ΔT]]/Table13[[#This Row],[R]]</f>
+        <v>150</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="19">
+        <f>SUM(L29:L31)</f>
+        <v>0.14295329670329671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="11">
+        <f>T31</f>
+        <v>6.9570747217806039E-2</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <f>Table13[[#This Row],[ΔT]]/Table13[[#This Row],[R]]</f>
+        <v>287.47714808043878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <f>D29+D30+D31+D32+D33</f>
+        <v>639.04029082005218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="11">
+        <f>L32</f>
+        <v>0.14295329670329671</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <f>Table14[[#This Row],[ΔT]]/Table14[[#This Row],[R]]</f>
+        <v>48.967041414432593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="11">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="C43" s="25">
+        <f>15-7</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D43">
+        <f>Table14[[#This Row],[ΔT]]/Table14[[#This Row],[R]]</f>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44">
+        <v>0.17</v>
+      </c>
+      <c r="C44">
         <v>13</v>
       </c>
-      <c r="B9">
-        <f>-5-20</f>
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="e">
-        <f>B9/B10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="D44">
+        <f>Table14[[#This Row],[ΔT]]/Table14[[#This Row],[R]]</f>
+        <v>76.470588235294116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45" s="25">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <f>Table14[[#This Row],[ΔT]]/Table14[[#This Row],[R]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="11">
+        <f>0.07</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C46">
         <v>13</v>
       </c>
-      <c r="B15">
-        <f>-20</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="e">
-        <f>B15/B16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <f>-20</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="e">
-        <f>B21/B22</f>
-        <v>#DIV/0!</v>
+      <c r="D46">
+        <f>Table14[[#This Row],[ΔT]]/Table14[[#This Row],[R]]</f>
+        <v>185.71428571428569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47">
+        <f>D42+D43+D44+D45+D46</f>
+        <v>444.4852486973457</v>
       </c>
     </row>
   </sheetData>
@@ -3813,13 +4560,694 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBBEF41-0BD6-472F-9580-F0F53B22DE77}">
-  <dimension ref="A1"/>
+  <dimension ref="C4:AC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:N15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:29" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="3:29" ht="31" x14ac:dyDescent="0.35">
+      <c r="K5" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+    </row>
+    <row r="7" spans="3:29" ht="21" x14ac:dyDescent="0.25">
+      <c r="C7" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="11">
+        <f>USFA05!E116</f>
+        <v>5.1282342458813045E-2</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <f>Table15[[#This Row],[ΔT]]/Table15[[#This Row],[R]]</f>
+        <v>97.499446403324995</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="C9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="36">
+        <f>N17</f>
+        <v>883.10335103320199</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="35">
+        <f>D9/1</f>
+        <v>883.10335103320199</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="11">
+        <f>USFA05!B162</f>
+        <v>5.0210320191295968E-2</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <f>Table15[[#This Row],[ΔT]]/Table15[[#This Row],[R]]</f>
+        <v>99.58112158915803</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="15">
+        <v>5</v>
+      </c>
+      <c r="U9" s="16">
+        <v>52</v>
+      </c>
+      <c r="V9" s="18">
+        <v>20</v>
+      </c>
+      <c r="W9" s="22">
+        <f>T9*10^-2/(U9*V9)</f>
+        <v>4.8076923076923077E-5</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="AB9" s="18">
+        <f>17*1+5*3</f>
+        <v>32</v>
+      </c>
+      <c r="AC9" s="17">
+        <f>Z9*10^-2/(AA9*AB9)</f>
+        <v>3.6764705882352945E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="11">
+        <f>USFA05!B183</f>
+        <v>0.11378076775631896</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <f>Table15[[#This Row],[ΔT]]/Table15[[#This Row],[R]]</f>
+        <v>43.944157686722228</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="15">
+        <v>5</v>
+      </c>
+      <c r="U10" s="18">
+        <v>52</v>
+      </c>
+      <c r="V10" s="18">
+        <v>20</v>
+      </c>
+      <c r="W10" s="22">
+        <f>T10*10^-2/(U10*V10)</f>
+        <v>4.8076923076923077E-5</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AB10" s="18">
+        <f>17*1+5*3</f>
+        <v>32</v>
+      </c>
+      <c r="AC10" s="19">
+        <f>Z10*10^-2/(AA10*AB10)</f>
+        <v>5.0675675675675678E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="C11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="36">
+        <f>USFA06!D21</f>
+        <v>742.6624691492998</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="35">
+        <f>D11/1</f>
+        <v>742.6624691492998</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="11">
+        <f>USFA05!B133</f>
+        <v>0.74333791208791211</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>Table15[[#This Row],[ΔT]]/Table15[[#This Row],[R]]</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="18">
+        <v>10</v>
+      </c>
+      <c r="U11" s="18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="V11" s="18">
+        <v>20</v>
+      </c>
+      <c r="W11" s="19">
+        <f>T11*10^-2/(U11*V11)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC11" s="19">
+        <f>SUM(AC9:AC10)</f>
+        <v>5.4352146263910973E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="K12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="11">
+        <f>USFA05!B105</f>
+        <v>0.10483199803833147</v>
+      </c>
+      <c r="M12">
+        <f>15-7</f>
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <f>Table15[[#This Row],[ΔT]]/Table15[[#This Row],[R]]</f>
+        <v>76.312577740575222</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="19">
+        <f>SUM(W9:W11)</f>
+        <v>0.14295329670329671</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="C13" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="36">
+        <f>USFA06!D34</f>
+        <v>639.04029082005218</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="35">
+        <f>D13/1</f>
+        <v>639.04029082005218</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="K13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="11">
+        <f>USFA05!H49</f>
+        <v>0.10483199803833147</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <f>Table15[[#This Row],[ΔT]]/Table15[[#This Row],[R]]</f>
+        <v>143.08608326357856</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="K14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="11">
+        <f>USFA05!B49</f>
+        <v>0.10483199803833147</v>
+      </c>
+      <c r="M14">
+        <f>15-(-5)</f>
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <f>Table15[[#This Row],[ΔT]]/Table15[[#This Row],[R]]</f>
+        <v>190.78144435143807</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="C15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="36">
+        <f>USFA06!D47</f>
+        <v>444.4852486973457</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="35">
+        <f>D15/1</f>
+        <v>444.4852486973457</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="K15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="11">
+        <f>W12</f>
+        <v>0.14295329670329671</v>
+      </c>
+      <c r="M15">
+        <f>15-(-5)</f>
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <f>Table15[[#This Row],[ΔT]]/Table15[[#This Row],[R]]</f>
+        <v>139.90583261266454</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="K16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="11">
+        <f>AC11</f>
+        <v>5.4352146263910973E-2</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <f>Table15[[#This Row],[ΔT]]/Table15[[#This Row],[R]]</f>
+        <v>91.992687385740396</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="C17" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="36">
+        <f>N30</f>
+        <v>319.66944285738202</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35">
+        <f>D17/1</f>
+        <v>319.66944285738202</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17">
+        <f>SUM(N8:N16)</f>
+        <v>883.10335103320199</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="C19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="37">
+        <f>SUM(D9:E17)</f>
+        <v>3028.9608025572816</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35">
+        <f>D19/1</f>
+        <v>3028.9608025572816</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="22" spans="3:23" ht="31" x14ac:dyDescent="0.35">
+      <c r="K22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="K23" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="S23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="18">
+        <v>10</v>
+      </c>
+      <c r="U24" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="V24" s="18">
+        <f>8*6</f>
+        <v>48</v>
+      </c>
+      <c r="W24" s="17">
+        <f>T24*10^-2/(U24*V24)</f>
+        <v>2.4509803921568631E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="11">
+        <f>USFA05!H69</f>
+        <v>0.17793139293139293</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <f>Table156[[#This Row],[ΔT]]/Table156[[#This Row],[R]]</f>
+        <v>28.100718583863994</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" s="18">
+        <v>6</v>
+      </c>
+      <c r="U25" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="V25" s="18">
+        <f>8*6</f>
+        <v>48</v>
+      </c>
+      <c r="W25" s="19">
+        <f>T25*10^-2/(U25*V25)</f>
+        <v>3.3783783783783786E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="11">
+        <f>USFA05!H95</f>
+        <v>0.14646336872995872</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <f>Table156[[#This Row],[ΔT]]/Table156[[#This Row],[R]]</f>
+        <v>34.138228851056482</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="19">
+        <f>SUM(W24:W25)</f>
+        <v>3.6234764175940647E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="11">
+        <f>USFA05!H138</f>
+        <v>9.1128011757494951E-2</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <f>Table156[[#This Row],[ΔT]]/Table156[[#This Row],[R]]</f>
+        <v>54.867871070266908</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="11">
+        <f>USFA05!H112</f>
+        <v>0.123889652014652</v>
+      </c>
+      <c r="M28">
+        <f>15-7</f>
+        <v>8</v>
+      </c>
+      <c r="N28">
+        <f>Table156[[#This Row],[ΔT]]/Table156[[#This Row],[R]]</f>
+        <v>64.573593273584038</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="11">
+        <f>W26</f>
+        <v>3.6234764175940647E-2</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <f>Table156[[#This Row],[ΔT]]/Table156[[#This Row],[R]]</f>
+        <v>137.98903107861059</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="N30">
+        <f>SUM(N25:N29)</f>
+        <v>319.66944285738202</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="F7:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4062,14 +5490,14 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bd9de7ca-1bc7-4476-8342-8c6da5362d49"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="bd9de7ca-1bc7-4476-8342-8c6da5362d49"/>
     <ds:schemaRef ds:uri="b163ee49-d5ca-4566-8d9a-132778b8595f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
